--- a/pred_ohlcv/54_21/2019-11-01 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 GXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>6118.834700000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>5732.091800000001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>6012.091800000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>5433.122000000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>4253.529800000001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>4253.529800000001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>4253.529800000001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>3842.172900000002</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2339.709000000002</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>5661.709100000002</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>5661.709100000002</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>5662.709100000002</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>3184.709100000002</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>10998.717</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>11748.0401</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>13669.04</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>26514.8108</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>26514.8108</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>26514.8108</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>27137.8094</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>27137.8094</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>22166.8076</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>22166.8076</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>22166.8076</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>22166.8076</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>19751.8708</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>19751.8708</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>19751.8708</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>19751.8708</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>19751.8708</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>19726.7653</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>20761.4771</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>20761.4771</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>24422.6882</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>24422.6882</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>24422.6882</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>24502.6882</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>24502.6882</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>23865.9573</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>23866.9573</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-01 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 GXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>6118.834700000001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>5732.091800000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>6012.091800000001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>5433.122000000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>4253.529800000001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>4253.529800000001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>4253.529800000001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -886,7 +886,7 @@
         <v>6412.555200000002</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>3842.172900000002</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>5662.709100000002</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>3184.709100000002</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>9044.735700000003</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>11748.0401</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>11748.0401</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>13669.04</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>13669.04</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>15984.04</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>26514.8108</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>26514.8108</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>26514.8108</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>27137.8094</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>27137.8094</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>22166.8076</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>22166.8076</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>22166.8076</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>22166.8076</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>19751.8708</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>19751.8708</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>19751.8708</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>19751.8708</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>19751.8708</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>19726.7653</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>20761.4771</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>20761.4771</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>20761.4771</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>20761.4771</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>20761.4771</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>20761.4771</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>20761.4771</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>20721.4771</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>24422.6882</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>24422.6882</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>24422.6882</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>24422.6882</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>24422.6882</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>24502.6882</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>24502.6882</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>23865.9573</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>23866.9573</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
